--- a/taules_exerc_gis/surfaces_square_meters_by_id_census_and_use_category.xlsx
+++ b/taules_exerc_gis/surfaces_square_meters_by_id_census_and_use_category.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C302"/>
+  <dimension ref="A1:C596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,114 +490,110 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>958.1261385059674</v>
+        <v>2226483.655261097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>235.6351024991565</v>
+        <v>60589.42450961827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6055.16821806574</v>
+        <v>1080.914075252428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2872.723137660144</v>
+        <v>377304.3654027232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>74796.81395608823</v>
+        <v>18983.224264506</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>0700201002</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5282.183065877154</v>
+        <v>3984.810777332509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12912.94031910591</v>
+        <v>10184.09779604974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7901.399986278438</v>
+        <v>160.5981999980997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Piscines</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8571.478227094518</v>
+        <v>612.2036377396651</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2159.433219993733</v>
+        <v>22955.56163113363</v>
       </c>
     </row>
     <row r="13">
@@ -608,136 +604,132 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>461670.1878535718</v>
+        <v>1494245.143012524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>0700202001</t>
+          <t>0700201002</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3516.362602752943</v>
+        <v>165.9846499953561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3066.188260122438</v>
+        <v>12505368.91541959</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6609.507063436228</v>
+        <v>14292.61390450047</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>894.7654200080428</v>
+        <v>28876.93352031539</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Comu</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>65376.97461333207</v>
+        <v>712.3979449947021</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>0700202002</t>
-        </is>
-      </c>
+      <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>AltresCal</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>670.2361724998694</v>
+        <v>291945.7201852181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29184.4495819915</v>
+        <v>63.43805999716418</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>559.1894799998802</v>
+        <v>208215.6979565736</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22521.35544684399</v>
+        <v>170790.0669554365</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>371.8030627052505</v>
+        <v>74829.71180996059</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Piscines</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>730.4623394556976</v>
+        <v>2112.943510040537</v>
       </c>
     </row>
     <row r="25">
@@ -748,13 +740,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>266745.8079725371</v>
+        <v>2094508.100472199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>0700202003</t>
+          <t>0700202001</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -763,379 +755,367 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11768.46575572021</v>
+        <v>707.9553999883325</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6520.484944112669</v>
+        <v>10109391.99993237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7879.709339961395</v>
+        <v>74490.5494457031</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9203.41588305149</v>
+        <v>3546.545945126272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5444.421344743429</v>
+        <v>1581911.212730783</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Piscines</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1117.310177499445</v>
+        <v>654478.9768512935</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>555983.3208598306</v>
+        <v>396877.9328934001</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>0701501001</t>
-        </is>
-      </c>
+      <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1648.346416320203</v>
+        <v>64293.04743348124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1019.741982504848</v>
+        <v>17.8236999993864</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Piscines</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5054.745286667908</v>
+        <v>12610.32861187735</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>EnsenyamentCultural</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2356.955320253653</v>
+        <v>95.35609584729904</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>181.6866112189771</v>
+        <v>746431.3609646232</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>VincViv</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>45428.49227371797</v>
+        <v>56.97780000004887</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>0701501002</t>
+          <t>0700202002</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4553.181116308114</v>
+        <v>670.2361724998694</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>924.6142702741721</v>
+        <v>10918405.62739825</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1310.39992249545</v>
+        <v>30360.87471674536</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>517.1699033675112</v>
+        <v>2040.855454904259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>53563.75435213053</v>
+        <v>1179243.293303888</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>0701501003</t>
-        </is>
-      </c>
+      <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4538.786859341736</v>
+        <v>21689.99875648847</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3512.842002911241</v>
+        <v>16077.10249359539</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>Esportiu</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1444.398352247641</v>
+        <v>879.7311101137794</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>342.7534902461122</v>
+        <v>4442.663410491477</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Oficines</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1422.918817494327</v>
+        <v>54993.14150170962</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>NoCodificat</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>136490.5682911389</v>
+        <v>544.4520550042358</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>0701501004</t>
-        </is>
-      </c>
+      <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8254.949318581899</v>
+        <v>63.80585000125771</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Piscines</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>12029.66887201926</v>
+        <v>19985.77686187794</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1503.896979743554</v>
+        <v>1540988.577337706</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Piscines</t>
+          <t>VincViv</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1476.847117499336</v>
+        <v>5008.859903574679</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>0700202003</t>
+        </is>
+      </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>292801.3306350076</v>
+        <v>11768.46575572021</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>0701501005</t>
-        </is>
-      </c>
+      <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1620.624272243661</v>
+        <v>8199.646550773814</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2195.803490605987</v>
+        <v>10267.59140747583</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14781.65865833598</v>
+        <v>24633.16714022948</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4047.792444637476</v>
+        <v>6000.074532412077</v>
       </c>
     </row>
     <row r="59">
@@ -1146,7 +1126,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4681.6332050114</v>
+        <v>1286.092680002986</v>
       </c>
     </row>
     <row r="60">
@@ -1157,427 +1137,415 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5345.50392213478</v>
+        <v>19231.68676589878</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>595471.6190468067</v>
+        <v>8102.629537400216</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>0701502001</t>
-        </is>
-      </c>
+      <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1114.148058963846</v>
+        <v>36.32234999901659</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Piscines</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1263.442236614742</v>
+        <v>7171.269803623829</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1778.216701602037</v>
+        <v>5767.301940013192</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>367.5390002521088</v>
+        <v>557430.523194619</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n"/>
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>0701501001</t>
+        </is>
+      </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>Oficines</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>288.2706293367069</v>
+        <v>7334.668056709819</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>41882.21554931741</v>
+        <v>127.0193000052665</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>0701502002</t>
-        </is>
-      </c>
+      <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>10307.18885634547</v>
+        <v>1708.365216323924</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5978.129953707301</v>
+        <v>1699.262530003754</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>990.4080515633428</v>
+        <v>6094.799194170268</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>Comu</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1417.984769341807</v>
+        <v>2356.955320253653</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8743.909608182845</v>
+        <v>4078.691762485339</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1756.428957762964</v>
+        <v>4601.285051826514</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>Oficines</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>93.61419999813701</v>
+        <v>18.2691149987626</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>172869.6186818652</v>
+        <v>294.9821500003321</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>0701502003</t>
-        </is>
-      </c>
+      <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5744.739224241332</v>
+        <v>1839.491639763821</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>914.5140350001981</v>
+        <v>45428.49227371797</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n"/>
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>0701501002</t>
+        </is>
+      </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>712.0711000023809</v>
+        <v>905.4989132484326</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>117.6261800063318</v>
+        <v>2038.315281873349</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>103.6016700012642</v>
+        <v>8356.675355934876</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>77093.62161864193</v>
+        <v>924.6142702741721</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>0701502004</t>
-        </is>
-      </c>
+      <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3498.416751497812</v>
+        <v>7726.376989228861</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>111.2962499972421</v>
+        <v>8959.406790609028</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
       <c r="B84" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>383.6551100038086</v>
+        <v>336.4288894810744</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="inlineStr">
         <is>
-          <t>EnsenyamentCultural</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3992.838814996806</v>
+        <v>599.3175681561293</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
       <c r="B86" s="1" t="inlineStr">
         <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>222.0946849977561</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
           <t>Residencial</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>29153.04693819421</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>0701503001</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>Aparcament</t>
-        </is>
-      </c>
       <c r="C87" t="n">
-        <v>3784.946620854668</v>
+        <v>54267.00074533158</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
       <c r="B88" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>VincViv</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1680.774636656157</v>
+        <v>59.87335000307321</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n"/>
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>0701501003</t>
+        </is>
+      </c>
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4259.510266193165</v>
+        <v>958.2418835625735</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>462.2079811278637</v>
+        <v>200.5996441384679</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
       <c r="B91" s="1" t="inlineStr">
         <is>
-          <t>Oficines</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>155.1633974992941</v>
+        <v>6596.960322751112</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>67503.47705532776</v>
+        <v>535.9336898889644</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>0701503002</t>
-        </is>
-      </c>
+      <c r="A93" s="1" t="n"/>
       <c r="B93" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>178.6445125023261</v>
+        <v>4585.972087316924</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1248.428654111197</v>
+        <v>7123.848192965687</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>153.0341586328946</v>
+        <v>1444.398352247641</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>596.1616291232289</v>
+        <v>16708.9064057598</v>
       </c>
     </row>
     <row r="97">
@@ -1588,563 +1556,551 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>394.763350003327</v>
+        <v>2025.499108263135</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>42396.82015236735</v>
+        <v>1549.706097498269</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>0701503003</t>
-        </is>
-      </c>
+      <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>254.7124908932448</v>
+        <v>513.800567507417</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4256.247796498837</v>
+        <v>136490.5682911389</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n"/>
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>0701501004</t>
+        </is>
+      </c>
       <c r="B101" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>588.2034442571264</v>
+        <v>61.48109829274783</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1651.974697884872</v>
+        <v>11405995.74924261</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="inlineStr">
         <is>
-          <t>Esportiu</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>283.6448674994178</v>
+        <v>24591.59965162477</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n"/>
       <c r="B104" s="1" t="inlineStr">
         <is>
-          <t>Oficines</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>607.8054050053281</v>
+        <v>1394.616343904961</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>45037.19306970119</v>
+        <v>68828.14326293684</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>0701504001</t>
-        </is>
-      </c>
+      <c r="A106" s="1" t="n"/>
       <c r="B106" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>485.1295000006521</v>
+        <v>36704.31909427486</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2562.478250413175</v>
+        <v>55579.69777605609</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1886.082237510239</v>
+        <v>2303.715358975544</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2531.93454428835</v>
+        <v>894.1933924414154</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n"/>
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>Esportiu</t>
+          <t>Piscines</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4309.571202495717</v>
+        <v>96314.16436155957</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n"/>
       <c r="B111" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>136.765299993277</v>
+        <v>5131.732853648425</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n"/>
       <c r="B112" s="1" t="inlineStr">
         <is>
-          <t>Oficines</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>150.818432121984</v>
+        <v>880550.7367021305</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n"/>
       <c r="B113" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>VincViv</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>73296.92435056981</v>
+        <v>822.1968905119545</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>0701504003</t>
+          <t>0701501005</t>
         </is>
       </c>
       <c r="B114" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>722.8781874997067</v>
+        <v>2163.357637511807</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n"/>
       <c r="B115" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>4909.547990375331</v>
+        <v>12226.62743376636</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>476.6208722631517</v>
+        <v>2195.803490605987</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>542.9891124945606</v>
+        <v>44943.63793368518</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>171.56624749925</v>
+        <v>11150.25690164764</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>895.7005849684466</v>
+        <v>27745.61804268397</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n"/>
       <c r="B120" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>78666.60748323999</v>
+        <v>248068.6258865288</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>0701504004</t>
-        </is>
-      </c>
+      <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>6861.957123749503</v>
+        <v>1181.880142730227</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Piscines</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8968.613011585974</v>
+        <v>18929.85710125863</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
       <c r="B123" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>10211.70155930511</v>
+        <v>945.8321172484325</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>19611.30658611174</v>
+        <v>598331.2023608419</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n"/>
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>0701502001</t>
+        </is>
+      </c>
       <c r="B125" s="1" t="inlineStr">
         <is>
-          <t>Esportiu</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>10623.92242099911</v>
+        <v>512.826797496453</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
       <c r="B126" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>754.6885719421774</v>
+        <v>1799.768156296082</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n"/>
       <c r="B127" s="1" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3928.65679226628</v>
+        <v>1408.329636620504</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n"/>
       <c r="B128" s="1" t="inlineStr">
         <is>
-          <t>Piscines</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2377.962862996565</v>
+        <v>2412.01072160412</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
       <c r="B129" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1446858.612842519</v>
+        <v>2047.924877662316</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
       <c r="B130" s="1" t="inlineStr">
         <is>
-          <t>VincViv</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1530.828142559258</v>
+        <v>726.2556327557214</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>0702301001</t>
-        </is>
-      </c>
+      <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>895.6291148443777</v>
+        <v>513.3826293332127</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
       <c r="B132" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>202.0469149974259</v>
+        <v>41882.21554931741</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n"/>
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>0701502002</t>
+        </is>
+      </c>
       <c r="B133" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1500.83878423908</v>
+        <v>1275.985290507308</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n"/>
       <c r="B134" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>194.5249201240939</v>
+        <v>16968711.95168532</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n"/>
       <c r="B135" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>992.1910084578369</v>
+        <v>17416.72467430117</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n"/>
       <c r="B136" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>75093.86770451983</v>
+        <v>45940.95580244138</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>0702301002</t>
-        </is>
-      </c>
+      <c r="A137" s="1" t="n"/>
       <c r="B137" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>Comu</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>230.2245826267866</v>
+        <v>1417.984769341807</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n"/>
       <c r="B138" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>680.3454076199559</v>
+        <v>150718.8666433839</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n"/>
       <c r="B139" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>574.6899401287375</v>
+        <v>1490.783915002576</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n"/>
       <c r="B140" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1272.763882876085</v>
+        <v>102989.7111673945</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n"/>
       <c r="B141" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>412.6536350038114</v>
+        <v>76670.0830224066</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n"/>
       <c r="B142" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>51318.04025858177</v>
+        <v>182742.279139363</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>0702301003</t>
-        </is>
-      </c>
+      <c r="A143" s="1" t="n"/>
       <c r="B143" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>134.3528799964038</v>
+        <v>53188.92919819617</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n"/>
       <c r="B144" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>898.0656305007034</v>
+        <v>3369.506796700221</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n"/>
       <c r="B145" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1920.799471392505</v>
+        <v>6031.783607626031</v>
       </c>
     </row>
     <row r="146">
@@ -2155,92 +2111,88 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>148570.7825706632</v>
+        <v>856261.5787983701</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>0703201001</t>
-        </is>
-      </c>
+      <c r="A147" s="1" t="n"/>
       <c r="B147" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>VincViv</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1408.330964560081</v>
+        <v>7887.484533854898</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n"/>
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>0701502003</t>
+        </is>
+      </c>
       <c r="B148" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1975.656206973715</v>
+        <v>1307.930335259382</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n"/>
       <c r="B149" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>159.1157599965278</v>
+        <v>4458.51108339248</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n"/>
       <c r="B150" s="1" t="inlineStr">
         <is>
-          <t>Oficines</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3248.402992655711</v>
+        <v>7126.697508182625</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n"/>
       <c r="B151" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>34821.5504135807</v>
+        <v>1445.705834987585</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>0703201002</t>
-        </is>
-      </c>
+      <c r="A152" s="1" t="n"/>
       <c r="B152" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1454.048754605698</v>
+        <v>2597.907282510262</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n"/>
       <c r="B153" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>4094.408294205123</v>
+        <v>1171.124924993875</v>
       </c>
     </row>
     <row r="154">
@@ -2251,55 +2203,55 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>111.2889999996122</v>
+        <v>117.6261800063318</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n"/>
       <c r="B155" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>68887.5300149791</v>
+        <v>2666.243073170356</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>0703202001</t>
-        </is>
-      </c>
+      <c r="A156" s="1" t="n"/>
       <c r="B156" s="1" t="inlineStr">
         <is>
-          <t>AltresCal</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1785.350142300612</v>
+        <v>1019.875281377846</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n"/>
       <c r="B157" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>9392.893987200074</v>
+        <v>77093.62161864193</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n"/>
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>0701502004</t>
+        </is>
+      </c>
       <c r="B158" s="1" t="inlineStr">
         <is>
           <t>Aparcament</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>616.7735558693732</v>
+        <v>3498.416751497812</v>
       </c>
     </row>
     <row r="159">
@@ -2310,7 +2262,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>184.5055800003952</v>
+        <v>457.4642624919372</v>
       </c>
     </row>
     <row r="160">
@@ -2321,29 +2273,29 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3105.288999565992</v>
+        <v>1313.848041384425</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n"/>
       <c r="B161" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>306.4251874948939</v>
+        <v>3992.838814996806</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n"/>
       <c r="B162" s="1" t="inlineStr">
         <is>
-          <t>Oficines</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>479.7689625055144</v>
+        <v>580.9375800038928</v>
       </c>
     </row>
     <row r="163">
@@ -2354,147 +2306,143 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>88760.87562038022</v>
+        <v>29153.04693819421</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>0703202002</t>
+          <t>0701503001</t>
         </is>
       </c>
       <c r="B164" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3266.756897688757</v>
+        <v>4998.18516443456</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n"/>
       <c r="B165" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>208.6925726193802</v>
+        <v>1600.711457364583</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n"/>
       <c r="B166" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3522.835391146998</v>
+        <v>4599.454870283069</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n"/>
       <c r="B167" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>500.9100944797628</v>
+        <v>3115.822991300396</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n"/>
       <c r="B168" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>394.51842537626</v>
+        <v>9432.546838084578</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n"/>
       <c r="B169" s="1" t="inlineStr">
         <is>
-          <t>Oficines</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>422.310487128711</v>
+        <v>3229.103151479813</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n"/>
       <c r="B170" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>86572.69415784266</v>
+        <v>577.8098924926115</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>0703202003</t>
-        </is>
-      </c>
+      <c r="A171" s="1" t="n"/>
       <c r="B171" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>398.4032177452536</v>
+        <v>3169.423674616196</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n"/>
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>873.2801049838889</v>
+        <v>1147.3463486795</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n"/>
       <c r="B173" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>123.2978625012611</v>
+        <v>3386.05550092459</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n"/>
       <c r="B174" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1419.141004458573</v>
+        <v>1049.24432982884</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n"/>
       <c r="B175" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>144.9886999993433</v>
+        <v>235.7337499967648</v>
       </c>
     </row>
     <row r="176">
@@ -2505,37 +2453,33 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>54132.75105614465</v>
+        <v>67623.24249782672</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>0703202004</t>
+          <t>0701503002</t>
         </is>
       </c>
       <c r="B177" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>8601.24461986373</v>
+        <v>17960295.87624936</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>0703203001</t>
-        </is>
-      </c>
+      <c r="A178" s="1" t="n"/>
       <c r="B178" s="1" t="inlineStr">
         <is>
           <t>Aparcament</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>343.8872052466547</v>
+        <v>6720.360565185205</v>
       </c>
     </row>
     <row r="179">
@@ -2546,7 +2490,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>441.2209324976001</v>
+        <v>153.0341586328946</v>
       </c>
     </row>
     <row r="180">
@@ -2557,88 +2501,84 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3789.073207986075</v>
+        <v>93827.89667461213</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n"/>
       <c r="B181" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>358.0765111427361</v>
+        <v>111.4982029902172</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n"/>
       <c r="B182" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>92602.16252262142</v>
+        <v>46639.62849296146</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>0703203002</t>
-        </is>
-      </c>
+      <c r="A183" s="1" t="n"/>
       <c r="B183" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>625.6542071259969</v>
+        <v>217382.0789582717</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n"/>
       <c r="B184" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1151.070022711136</v>
+        <v>1276.153882255425</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n"/>
       <c r="B185" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>6976.758486479681</v>
+        <v>5256.283123281364</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n"/>
       <c r="B186" s="1" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Piscines</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>683.2831018999634</v>
+        <v>382.4096163798102</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n"/>
       <c r="B187" s="1" t="inlineStr">
         <is>
-          <t>Oficines</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>741.135872867269</v>
+        <v>77.7074254879829</v>
       </c>
     </row>
     <row r="188">
@@ -2649,258 +2589,246 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>64082.20784968017</v>
+        <v>3167216.160912141</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>0703203003</t>
-        </is>
-      </c>
+      <c r="A189" s="1" t="n"/>
       <c r="B189" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>VincViv</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1026.126870726886</v>
+        <v>1043.953365812489</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n"/>
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>0701503003</t>
+        </is>
+      </c>
       <c r="B190" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>7821.262254041611</v>
+        <v>976.1075175046666</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n"/>
       <c r="B191" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2251.507797750399</v>
+        <v>254.7124908932448</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n"/>
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>28322.19339756909</v>
+        <v>6384.47999900609</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n"/>
       <c r="B193" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1848.45589287913</v>
+        <v>863.422185259796</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n"/>
       <c r="B194" s="1" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2337.567801622242</v>
+        <v>4306.414699006869</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n"/>
       <c r="B195" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>13395.86179428452</v>
+        <v>283.6448674994178</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n"/>
       <c r="B196" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>501533.7541813998</v>
+        <v>343.7749650034181</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>0703203004</t>
-        </is>
-      </c>
+      <c r="A197" s="1" t="n"/>
       <c r="B197" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>320.832525006611</v>
+        <v>810.5320499951075</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n"/>
       <c r="B198" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>39892.60877876003</v>
+        <v>1031.950250003074</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="inlineStr">
-        <is>
-          <t>0703203005</t>
-        </is>
-      </c>
+      <c r="A199" s="1" t="n"/>
       <c r="B199" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>991.4139813883232</v>
+        <v>805.494754999005</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n"/>
       <c r="B200" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2072.009018139928</v>
+        <v>45037.19306970119</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n"/>
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>0701504001</t>
+        </is>
+      </c>
       <c r="B201" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>43415.1387539593</v>
+        <v>1619.725989994166</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="inlineStr">
-        <is>
-          <t>0703203006</t>
-        </is>
-      </c>
+      <c r="A202" s="1" t="n"/>
       <c r="B202" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3964.82556438437</v>
+        <v>984.4345600018601</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n"/>
       <c r="B203" s="1" t="inlineStr">
         <is>
-          <t>Comu</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>532.7029949955862</v>
+        <v>3826.530311265423</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n"/>
       <c r="B204" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2040.504483311053</v>
+        <v>3048.08266883967</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n"/>
       <c r="B205" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>130460.5171340299</v>
+        <v>8504.200657665375</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="inlineStr">
-        <is>
-          <t>0703204001</t>
-        </is>
-      </c>
+      <c r="A206" s="1" t="n"/>
       <c r="B206" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>228.1280722623973</v>
+        <v>12963.0976576</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n"/>
       <c r="B207" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>377.1479426220819</v>
+        <v>4309.571202495717</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n"/>
       <c r="B208" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>857.712067462621</v>
+        <v>1151.462837498774</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n"/>
       <c r="B209" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1707.316662677513</v>
+        <v>1437.596322748838</v>
       </c>
     </row>
     <row r="210">
@@ -2911,7 +2839,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1703.933636761766</v>
+        <v>2239.263909947465</v>
       </c>
     </row>
     <row r="211">
@@ -2922,7 +2850,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1208.779639960244</v>
+        <v>541.1028775038806</v>
       </c>
     </row>
     <row r="212">
@@ -2933,33 +2861,33 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>61348.21461838017</v>
+        <v>73497.62494806736</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>0703204002</t>
+          <t>0701504002</t>
         </is>
       </c>
       <c r="B213" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>511.242912370039</v>
+        <v>7681196.332294758</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n"/>
       <c r="B214" s="1" t="inlineStr">
         <is>
-          <t>Comu</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1057.086492641972</v>
+        <v>33800.08018848155</v>
       </c>
     </row>
     <row r="215">
@@ -2970,493 +2898,481 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>11007.21375915057</v>
+        <v>41748.19225901822</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n"/>
       <c r="B216" s="1" t="inlineStr">
         <is>
-          <t>Esportiu</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>544.2495324991633</v>
+        <v>128.8091354314685</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n"/>
       <c r="B217" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1785.387678617513</v>
+        <v>13526.89003997565</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n"/>
       <c r="B218" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>108618.4094385022</v>
+        <v>39089.94728104155</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="inlineStr">
-        <is>
-          <t>0703205001</t>
-        </is>
-      </c>
+      <c r="A219" s="1" t="n"/>
       <c r="B219" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>5599.530847988832</v>
+        <v>11374.62325173764</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n"/>
       <c r="B220" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>267.1226749953383</v>
+        <v>91.21813081244214</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n"/>
       <c r="B221" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Piscines</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>15205.82395985315</v>
+        <v>21741.60895044318</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n"/>
       <c r="B222" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>352.0412018737633</v>
+        <v>312191.6265294065</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n"/>
       <c r="B223" s="1" t="inlineStr">
         <is>
-          <t>Piscines</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1107.530501848964</v>
+        <v>339490.7843271126</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="n"/>
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>0701504003</t>
+        </is>
+      </c>
       <c r="B224" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>386967.2094073443</v>
+        <v>722.8781874997067</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n"/>
       <c r="B225" s="1" t="inlineStr">
         <is>
-          <t>VincViv</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1211.222692620554</v>
+        <v>6717.372121873653</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>0703701001</t>
-        </is>
-      </c>
+      <c r="A226" s="1" t="n"/>
       <c r="B226" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3077.397962216319</v>
+        <v>1013.75997725041</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n"/>
       <c r="B227" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>441.1009261581813</v>
+        <v>1150.473514794036</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n"/>
       <c r="B228" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>5400.138134685966</v>
+        <v>1298.005957068475</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n"/>
       <c r="B229" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>4740.383516367189</v>
+        <v>252.5184999978331</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n"/>
       <c r="B230" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>106175.5106791016</v>
+        <v>3731.813914748638</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>0703701002</t>
-        </is>
-      </c>
+      <c r="A231" s="1" t="n"/>
       <c r="B231" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>2449.626152628345</v>
+        <v>250.4724502804012</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n"/>
       <c r="B232" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>450.7527349984114</v>
+        <v>78666.60748323999</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="n"/>
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>0701504004</t>
+        </is>
+      </c>
       <c r="B233" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>978.3000839868923</v>
+        <v>7196.836962334441</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n"/>
       <c r="B234" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>200.318807500042</v>
+        <v>103650.2554507292</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n"/>
       <c r="B235" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>46839.7164831172</v>
+        <v>18418.95384593936</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="inlineStr">
-        <is>
-          <t>0703701003</t>
-        </is>
-      </c>
+      <c r="A236" s="1" t="n"/>
       <c r="B236" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>11410.0757437638</v>
+        <v>40582.01004556454</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n"/>
       <c r="B237" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>11087.83979993163</v>
+        <v>42167.35099522207</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n"/>
       <c r="B238" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>12292.5787031469</v>
+        <v>24183.86926247213</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n"/>
       <c r="B239" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>10910.91081869757</v>
+        <v>39302.20471187519</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n"/>
       <c r="B240" s="1" t="inlineStr">
         <is>
-          <t>Esportiu</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>27340.9786395236</v>
+        <v>490768.2598345456</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n"/>
       <c r="B241" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>24852.91296122954</v>
+        <v>3928.65679226628</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n"/>
       <c r="B242" s="1" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>906.7462124937567</v>
+        <v>8332.978893073137</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n"/>
       <c r="B243" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1066268.378917051</v>
+        <v>328.9231499983255</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="inlineStr">
-        <is>
-          <t>0705201001</t>
-        </is>
-      </c>
+      <c r="A244" s="1" t="n"/>
       <c r="B244" s="1" t="inlineStr">
         <is>
-          <t>AltresCal</t>
+          <t>Piscines</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2588.264270622483</v>
+        <v>25617.00631948025</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n"/>
       <c r="B245" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>7214.600653873171</v>
+        <v>1489717.814500919</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n"/>
       <c r="B246" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>VincViv</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>5271.702365246898</v>
+        <v>1530.828142559258</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="n"/>
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>0702301001</t>
+        </is>
+      </c>
       <c r="B247" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1455.122037748591</v>
+        <v>612.8962377016501</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n"/>
       <c r="B248" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2140.240876276337</v>
+        <v>7449093.52432677</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n"/>
       <c r="B249" s="1" t="inlineStr">
         <is>
-          <t>EnsenyamentCultural</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>420.8051560472916</v>
+        <v>2173.850938975311</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n"/>
       <c r="B250" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1461.338635378144</v>
+        <v>2333.934202939499</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n"/>
       <c r="B251" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>489.9639799989877</v>
+        <v>110939.796826684</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n"/>
       <c r="B252" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>68342.44773014096</v>
+        <v>128.8541851207193</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="inlineStr">
-        <is>
-          <t>0705201002</t>
-        </is>
-      </c>
+      <c r="A253" s="1" t="n"/>
       <c r="B253" s="1" t="inlineStr">
         <is>
-          <t>AltresCal</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>959.8226803720047</v>
+        <v>103.5080130655562</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n"/>
       <c r="B254" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>7815.085242859828</v>
+        <v>388.700875121495</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n"/>
       <c r="B255" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1127.166395811421</v>
+        <v>20118.46407464541</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n"/>
       <c r="B256" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1513.317743110835</v>
+        <v>54338.6936994743</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n"/>
       <c r="B257" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>NoCodificat</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>244.269977376315</v>
+        <v>4214.773949177708</v>
       </c>
     </row>
     <row r="258">
@@ -3467,287 +3383,279 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>109.2880500093422</v>
+        <v>168.7578999994024</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n"/>
       <c r="B259" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Piscines</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>88180.2695450738</v>
+        <v>1677.965240875156</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="inlineStr">
-        <is>
-          <t>0705202001</t>
-        </is>
-      </c>
+      <c r="A260" s="1" t="n"/>
       <c r="B260" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1069.893367746228</v>
+        <v>184.5462560677059</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n"/>
       <c r="B261" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>5838.706485994791</v>
+        <v>576011.5018335027</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="n"/>
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>0702301002</t>
+        </is>
+      </c>
       <c r="B262" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>29269.41487274909</v>
+        <v>1736.654069118634</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n"/>
       <c r="B263" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>4086.780910633665</v>
+        <v>882.1603101202105</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="inlineStr">
-        <is>
-          <t>0705202002</t>
-        </is>
-      </c>
+      <c r="A264" s="1" t="n"/>
       <c r="B264" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>970.6908050003478</v>
+        <v>1538.769682893022</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n"/>
       <c r="B265" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>12171.22056966715</v>
+        <v>1409.870955375054</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n"/>
       <c r="B266" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1151.055958407699</v>
+        <v>2851.895392494679</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n"/>
       <c r="B267" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>5369.337817673055</v>
+        <v>523.4981614489184</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n"/>
       <c r="B268" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>66004.1338884828</v>
+        <v>720.9843350141708</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n"/>
       <c r="B269" s="1" t="inlineStr">
         <is>
-          <t>Oficines</t>
+          <t>Residencial</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>113.1955349981372</v>
+        <v>51318.04025858177</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n"/>
       <c r="B270" s="1" t="inlineStr">
         <is>
-          <t>Piscines</t>
+          <t>VincViv</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2691.654164747923</v>
+        <v>209.9785850052034</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="n"/>
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>0702301003</t>
+        </is>
+      </c>
       <c r="B271" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1739152.072619081</v>
+        <v>12.24926012656288</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="inlineStr">
-        <is>
-          <t>0706401001</t>
-        </is>
-      </c>
+      <c r="A272" s="1" t="n"/>
       <c r="B272" s="1" t="inlineStr">
         <is>
-          <t>AltresCal</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1375.005075370414</v>
+        <v>11463293.47097409</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n"/>
       <c r="B273" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>114.1286574990168</v>
+        <v>971.2592333852203</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n"/>
       <c r="B274" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>833.0551677443882</v>
+        <v>365.8332562891101</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n"/>
       <c r="B275" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1089.307726136194</v>
+        <v>130725.1877840698</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n"/>
       <c r="B276" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>827.6200627402728</v>
+        <v>12226.36983480191</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n"/>
       <c r="B277" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Esportiu</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>490.6865699923583</v>
+        <v>78742.90195834659</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n"/>
       <c r="B278" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>52917.97818311607</v>
+        <v>16845.89434133402</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="inlineStr">
-        <is>
-          <t>0706401002</t>
-        </is>
-      </c>
+      <c r="A279" s="1" t="n"/>
       <c r="B279" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>125.3973288770464</v>
+        <v>1199.990570123818</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n"/>
       <c r="B280" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>NoCodificat</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>100.5676774984856</v>
+        <v>5631.295584160815</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n"/>
       <c r="B281" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>476.4879430019395</v>
+        <v>236298.4688456765</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n"/>
       <c r="B282" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>Piscines</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>594.2290414950673</v>
+        <v>3438.561502443669</v>
       </c>
     </row>
     <row r="283">
@@ -3758,286 +3666,3618 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>77509.46141694863</v>
+        <v>410019.98522321</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>0706401003</t>
+          <t>0703201001</t>
         </is>
       </c>
       <c r="B284" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>4798.971602768972</v>
+        <v>4913.399208389879</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n"/>
       <c r="B285" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>AltresNoCal</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1638.972222672622</v>
+        <v>27.93282249900275</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n"/>
       <c r="B286" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>9205.425461015739</v>
+        <v>3221.273097294055</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n"/>
       <c r="B287" s="1" t="inlineStr">
         <is>
-          <t>Esportiu</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2009.199452879156</v>
+        <v>2673.543064593748</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n"/>
       <c r="B288" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>EnsenyamentCultural</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>416.4062324997478</v>
+        <v>717.6011527487439</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n"/>
       <c r="B289" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>399287.1034445001</v>
+        <v>767.0219674917672</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="inlineStr">
-        <is>
-          <t>0706401004</t>
-        </is>
-      </c>
+      <c r="A290" s="1" t="n"/>
       <c r="B290" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>330.2599750028654</v>
+        <v>146.043967497391</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n"/>
       <c r="B291" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>466.7743046517487</v>
+        <v>3868.673182124145</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n"/>
       <c r="B292" s="1" t="inlineStr">
         <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>701.8722950003021</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n"/>
+      <c r="B293" s="1" t="inlineStr">
+        <is>
           <t>Residencial</t>
         </is>
       </c>
-      <c r="C292" t="n">
-        <v>31799.34123673535</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="inlineStr">
-        <is>
-          <t>0706401005</t>
-        </is>
-      </c>
-      <c r="B293" s="1" t="inlineStr">
-        <is>
-          <t>Aparcament</t>
-        </is>
-      </c>
       <c r="C293" t="n">
-        <v>543.8774201217318</v>
+        <v>34821.5504135807</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="n"/>
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>0703201002</t>
+        </is>
+      </c>
       <c r="B294" s="1" t="inlineStr">
         <is>
-          <t>HotelerRestauracio</t>
+          <t>AltresCal</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>3942.540500111365</v>
+        <v>1476.870505613557</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n"/>
       <c r="B295" s="1" t="inlineStr">
         <is>
-          <t>Oficines</t>
+          <t>Aparcament</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>428.1403376177302</v>
+        <v>130.3976346969638</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n"/>
       <c r="B296" s="1" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>189448.5914757646</v>
+        <v>2149.482854171945</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="inlineStr">
-        <is>
-          <t>0790201001</t>
-        </is>
-      </c>
+      <c r="A297" s="1" t="n"/>
       <c r="B297" s="1" t="inlineStr">
         <is>
-          <t>AltresNoCal</t>
+          <t>Emmagatzematge</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>212.2062124994019</v>
+        <v>6818.975426765505</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n"/>
       <c r="B298" s="1" t="inlineStr">
         <is>
-          <t>Aparcament</t>
+          <t>HotelerRestauracio</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>491.1310089030835</v>
+        <v>1228.251693632833</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n"/>
       <c r="B299" s="1" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>761.8388991327081</v>
+        <v>36.1162490016813</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n"/>
       <c r="B300" s="1" t="inlineStr">
         <is>
-          <t>Emmagatzematge</t>
+          <t>IndustrialResta</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>9103.381773119765</v>
+        <v>1668.851024258819</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n"/>
       <c r="B301" s="1" t="inlineStr">
         <is>
-          <t>IndustrialResta</t>
+          <t>Oficines</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>248.7513400029735</v>
+        <v>2260.775970375729</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n"/>
       <c r="B302" s="1" t="inlineStr">
         <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>496.5611949940217</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n"/>
+      <c r="B303" s="1" t="inlineStr">
+        <is>
           <t>Residencial</t>
         </is>
       </c>
-      <c r="C302" t="n">
-        <v>241218.2559034882</v>
+      <c r="C303" t="n">
+        <v>68887.5300149791</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>0703202001</t>
+        </is>
+      </c>
+      <c r="B304" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>5362.081468521592</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n"/>
+      <c r="B305" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>263116.6876497125</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n"/>
+      <c r="B306" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>24904.88296169972</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n"/>
+      <c r="B307" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>968.4541424965917</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n"/>
+      <c r="B308" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>17953.08832976041</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n"/>
+      <c r="B309" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>33287.74193514441</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n"/>
+      <c r="B310" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>174661.4371724459</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n"/>
+      <c r="B311" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>186.8878025022662</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n"/>
+      <c r="B312" s="1" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>16187.06886269286</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n"/>
+      <c r="B313" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>12693.92409211348</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n"/>
+      <c r="B314" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>1889.753365249481</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n"/>
+      <c r="B315" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>17684.51033177186</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n"/>
+      <c r="B316" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>436.1865196894178</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n"/>
+      <c r="B317" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>149516.9212974965</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>0703202002</t>
+        </is>
+      </c>
+      <c r="B318" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>1030.47374524725</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n"/>
+      <c r="B319" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>113.7222650013284</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n"/>
+      <c r="B320" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>3524.479160815667</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n"/>
+      <c r="B321" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>1024.025467611833</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n"/>
+      <c r="B322" s="1" t="inlineStr">
+        <is>
+          <t>Comu</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1249.485812744272</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n"/>
+      <c r="B323" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>6394.470132536487</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n"/>
+      <c r="B324" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>2173.288960627354</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n"/>
+      <c r="B325" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>619.6452077490292</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n"/>
+      <c r="B326" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>2779.484189863327</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n"/>
+      <c r="B327" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>394.51842537626</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n"/>
+      <c r="B328" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>422.310487128711</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n"/>
+      <c r="B329" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>491.3035875000429</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n"/>
+      <c r="B330" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>88272.09166809679</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>0703202003</t>
+        </is>
+      </c>
+      <c r="B331" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>362.1713952495034</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n"/>
+      <c r="B332" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>5147.61780313395</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n"/>
+      <c r="B333" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>5544.607923093641</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n"/>
+      <c r="B334" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>803.2155953758916</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n"/>
+      <c r="B335" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>8194.562794047373</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n"/>
+      <c r="B336" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>100.3051850009249</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n"/>
+      <c r="B337" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>851.7889651268587</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n"/>
+      <c r="B338" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>1265.904233742959</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n"/>
+      <c r="B339" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>54412.59511614056</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>0703202004</t>
+        </is>
+      </c>
+      <c r="B340" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>40647.43406052122</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n"/>
+      <c r="B341" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>18746.79218698766</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n"/>
+      <c r="B342" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>1919.820765248031</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n"/>
+      <c r="B343" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>18475.08235773961</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n"/>
+      <c r="B344" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>12154.34112025841</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n"/>
+      <c r="B345" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>1377.110127126612</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n"/>
+      <c r="B346" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>12383.33733260404</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n"/>
+      <c r="B347" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>35595.93398001362</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>0703203001</t>
+        </is>
+      </c>
+      <c r="B348" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>91506.95418329998</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n"/>
+      <c r="B349" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>2126.025445817716</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n"/>
+      <c r="B350" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>441.2209324976001</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n"/>
+      <c r="B351" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>65889.19434587013</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n"/>
+      <c r="B352" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>3224.143928837111</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n"/>
+      <c r="B353" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>688.1713538945563</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n"/>
+      <c r="B354" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>15.05202262484353</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n"/>
+      <c r="B355" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>4183.712185255954</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n"/>
+      <c r="B356" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>275737.3672034139</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>0703203002</t>
+        </is>
+      </c>
+      <c r="B357" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>2096.924027359366</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n"/>
+      <c r="B358" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>8387.777862927822</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n"/>
+      <c r="B359" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>8049.090135892599</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n"/>
+      <c r="B360" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>1715.429108086846</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n"/>
+      <c r="B361" s="1" t="inlineStr">
+        <is>
+          <t>Comu</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>618.5648152455852</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n"/>
+      <c r="B362" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>10168.65772790705</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n"/>
+      <c r="B363" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>5254.975233357542</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n"/>
+      <c r="B364" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>386.0082051155759</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n"/>
+      <c r="B365" s="1" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>683.2831018999634</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n"/>
+      <c r="B366" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>574.1189747569592</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n"/>
+      <c r="B367" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>2410.136266057743</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n"/>
+      <c r="B368" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>13266.51701725772</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n"/>
+      <c r="B369" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>64082.20784968017</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>0703203003</t>
+        </is>
+      </c>
+      <c r="B370" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>1302.955976608289</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n"/>
+      <c r="B371" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>11250769.99367801</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n"/>
+      <c r="B372" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>42773.35216980933</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n"/>
+      <c r="B373" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>45471.24103342386</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n"/>
+      <c r="B374" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>674080.1200897783</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n"/>
+      <c r="B375" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>5852.195374783079</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n"/>
+      <c r="B376" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>65825.06382123356</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n"/>
+      <c r="B377" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>710341.9670816563</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n"/>
+      <c r="B378" s="1" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>44781.07509454037</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n"/>
+      <c r="B379" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>195072.7892716052</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n"/>
+      <c r="B380" s="1" t="inlineStr">
+        <is>
+          <t>NoCodificat</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>38002.4125443861</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n"/>
+      <c r="B381" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>12833.58385718818</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n"/>
+      <c r="B382" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>6372.008403788702</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n"/>
+      <c r="B383" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>47972.43031638942</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n"/>
+      <c r="B384" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>2266845.965643845</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>0703203004</t>
+        </is>
+      </c>
+      <c r="B385" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>320.832525006611</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n"/>
+      <c r="B386" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>193.9252874997461</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n"/>
+      <c r="B387" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>198.0731424959866</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n"/>
+      <c r="B388" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>39892.60877876003</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>0703203005</t>
+        </is>
+      </c>
+      <c r="B389" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>10149.42423182597</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n"/>
+      <c r="B390" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>1479.801459564793</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n"/>
+      <c r="B391" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>13988.05586360322</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n"/>
+      <c r="B392" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>14379.99464761123</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n"/>
+      <c r="B393" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>31292.81135909979</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n"/>
+      <c r="B394" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>747.8368178768633</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n"/>
+      <c r="B395" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>428.4043975019085</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n"/>
+      <c r="B396" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>43415.1387539593</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>0703203006</t>
+        </is>
+      </c>
+      <c r="B397" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>203340.6959553525</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n"/>
+      <c r="B398" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>5373.360839394727</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n"/>
+      <c r="B399" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>585.3851313298399</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n"/>
+      <c r="B400" s="1" t="inlineStr">
+        <is>
+          <t>Comu</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>532.7029949955862</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n"/>
+      <c r="B401" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>71810.72015288332</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n"/>
+      <c r="B402" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>7856.16502614724</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n"/>
+      <c r="B403" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>59722.35386293013</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n"/>
+      <c r="B404" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>1056.33410481656</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n"/>
+      <c r="B405" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>395.939188704201</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n"/>
+      <c r="B406" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>122.2628951258487</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n"/>
+      <c r="B407" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>4090.953696467087</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n"/>
+      <c r="B408" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>34603.88297823676</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n"/>
+      <c r="B409" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>468479.0847788968</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n"/>
+      <c r="B410" s="1" t="inlineStr">
+        <is>
+          <t>VincViv</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>6323.387216144144</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>0703204001</t>
+        </is>
+      </c>
+      <c r="B411" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>2125.04440750167</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n"/>
+      <c r="B412" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>227.61932354416</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n"/>
+      <c r="B413" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>5383.84550610199</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n"/>
+      <c r="B414" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>533.4372368745858</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n"/>
+      <c r="B415" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>2811.911468264877</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n"/>
+      <c r="B416" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>327.5251051132927</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n"/>
+      <c r="B417" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>796.8585067239276</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n"/>
+      <c r="B418" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>2763.753650697525</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n"/>
+      <c r="B419" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>1894.675919195145</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n"/>
+      <c r="B420" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>2380.350471395686</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n"/>
+      <c r="B421" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>1390.103359959572</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n"/>
+      <c r="B422" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>61592.68769838154</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>0703204002</t>
+        </is>
+      </c>
+      <c r="B423" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>10461.21222446682</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n"/>
+      <c r="B424" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>511.242912370039</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n"/>
+      <c r="B425" s="1" t="inlineStr">
+        <is>
+          <t>Comu</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>1057.086492641972</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n"/>
+      <c r="B426" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>12950.01673452423</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n"/>
+      <c r="B427" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>5041.68573712346</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n"/>
+      <c r="B428" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>17330.81457552112</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n"/>
+      <c r="B429" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>9368.439454886164</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n"/>
+      <c r="B430" s="1" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>23.19620249921515</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n"/>
+      <c r="B431" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>1123.824082738528</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n"/>
+      <c r="B432" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>3782.995271517445</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n"/>
+      <c r="B433" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>108618.4094385022</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>0703205001</t>
+        </is>
+      </c>
+      <c r="B434" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>214.1365498752483</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n"/>
+      <c r="B435" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>21053592.81933662</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n"/>
+      <c r="B436" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>20363.51536631553</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n"/>
+      <c r="B437" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>418.2207750008098</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n"/>
+      <c r="B438" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>121561.2904765685</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n"/>
+      <c r="B439" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>1704.844690951811</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n"/>
+      <c r="B440" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>15233.42296153771</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n"/>
+      <c r="B441" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>1092511.564312153</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n"/>
+      <c r="B442" s="1" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>8412.490012522203</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n"/>
+      <c r="B443" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>38407.21751013344</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n"/>
+      <c r="B444" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>282.4350873156366</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n"/>
+      <c r="B445" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>3354.987237479081</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n"/>
+      <c r="B446" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>132.6238477008263</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n"/>
+      <c r="B447" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>3463739.137687793</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n"/>
+      <c r="B448" s="1" t="inlineStr">
+        <is>
+          <t>VincViv</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>1309.056152369326</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>0703701001</t>
+        </is>
+      </c>
+      <c r="B449" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>2096.931577119905</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n"/>
+      <c r="B450" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>66451.22997171358</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n"/>
+      <c r="B451" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>8919.986664732893</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n"/>
+      <c r="B452" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>4842.316822153302</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n"/>
+      <c r="B453" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>28841.60864210224</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n"/>
+      <c r="B454" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>8195.052665153937</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n"/>
+      <c r="B455" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>20093.53950682851</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n"/>
+      <c r="B456" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>4270.88960081058</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n"/>
+      <c r="B457" s="1" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>13425.36872477175</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n"/>
+      <c r="B458" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>30844.56019409429</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n"/>
+      <c r="B459" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>2315.180477119401</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n"/>
+      <c r="B460" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>45780.92936304141</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n"/>
+      <c r="B461" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>124798.7200328723</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>0703701002</t>
+        </is>
+      </c>
+      <c r="B462" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>1276.833106876822</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n"/>
+      <c r="B463" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>23190870.14540103</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n"/>
+      <c r="B464" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>4443.068334213533</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n"/>
+      <c r="B465" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>2246.288180208754</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n"/>
+      <c r="B466" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>981680.9846695962</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n"/>
+      <c r="B467" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>20116.65646220058</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n"/>
+      <c r="B468" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>3044.521389574795</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n"/>
+      <c r="B469" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>5174.291416251171</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n"/>
+      <c r="B470" s="1" t="inlineStr">
+        <is>
+          <t>NoCodificat</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>9130.350655464334</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n"/>
+      <c r="B471" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>6153.765897524316</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n"/>
+      <c r="B472" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>1304.849936372014</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n"/>
+      <c r="B473" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>48.29319992108685</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n"/>
+      <c r="B474" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>1135398.184643987</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>0703701003</t>
+        </is>
+      </c>
+      <c r="B475" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>1524.307903402743</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n"/>
+      <c r="B476" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>10683779.79675083</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n"/>
+      <c r="B477" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>15347.66638113138</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n"/>
+      <c r="B478" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>60036.62680500204</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n"/>
+      <c r="B479" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>503872.9302909251</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n"/>
+      <c r="B480" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>1105.886003508375</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n"/>
+      <c r="B481" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>450058.1671108454</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n"/>
+      <c r="B482" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>506187.8710140861</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n"/>
+      <c r="B483" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>2003.813601615097</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n"/>
+      <c r="B484" s="1" t="inlineStr">
+        <is>
+          <t>NoCodificat</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>4170.596922171932</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n"/>
+      <c r="B485" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>465.6637993199917</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n"/>
+      <c r="B486" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>9285.725211741894</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n"/>
+      <c r="B487" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>3566.106345493123</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n"/>
+      <c r="B488" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>1578959.221839121</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>0705201001</t>
+        </is>
+      </c>
+      <c r="B489" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>2887.22453326836</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n"/>
+      <c r="B490" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>9162.049899900723</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n"/>
+      <c r="B491" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>7415.751044254734</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n"/>
+      <c r="B492" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>2593.106074904765</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n"/>
+      <c r="B493" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>6461.351857911921</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n"/>
+      <c r="B494" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>9383.835826170231</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n"/>
+      <c r="B495" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>37887.62505592258</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n"/>
+      <c r="B496" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>1863.053752745877</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n"/>
+      <c r="B497" s="1" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>284.9417977486185</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n"/>
+      <c r="B498" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>1169.586832624725</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n"/>
+      <c r="B499" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>149.8124075030519</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n"/>
+      <c r="B500" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>724.3485255081192</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n"/>
+      <c r="B501" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>70544.38553070459</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>0705201002</t>
+        </is>
+      </c>
+      <c r="B502" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>959.8226803720047</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n"/>
+      <c r="B503" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>2165.871723367314</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n"/>
+      <c r="B504" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>9575.34649423004</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n"/>
+      <c r="B505" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>1623.942410809069</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n"/>
+      <c r="B506" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>4333.345869422916</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n"/>
+      <c r="B507" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>2221.269352563193</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n"/>
+      <c r="B508" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>773.2626926240598</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n"/>
+      <c r="B509" s="1" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>63.62969999915543</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n"/>
+      <c r="B510" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>711.7039123771438</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n"/>
+      <c r="B511" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>817.4320332318791</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n"/>
+      <c r="B512" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>643.2554206413513</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n"/>
+      <c r="B513" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>537.1989276333874</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n"/>
+      <c r="B514" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>88868.63537518567</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>0705202001</t>
+        </is>
+      </c>
+      <c r="B515" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>3438500.463287238</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n"/>
+      <c r="B516" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>41568.23121537314</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n"/>
+      <c r="B517" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>16737.42694658445</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n"/>
+      <c r="B518" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>942391.1088576689</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n"/>
+      <c r="B519" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>38615.15093312796</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n"/>
+      <c r="B520" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>150935.2541403255</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n"/>
+      <c r="B521" s="1" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>21436.11136609961</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n"/>
+      <c r="B522" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>99736.80982821656</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n"/>
+      <c r="B523" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>40214.90624295953</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n"/>
+      <c r="B524" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>5879459.994815543</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n"/>
+      <c r="B525" s="1" t="inlineStr">
+        <is>
+          <t>VincViv</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>3173.572238018261</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>0705202002</t>
+        </is>
+      </c>
+      <c r="B526" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>392.2131000106798</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n"/>
+      <c r="B527" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>114358.7336628952</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n"/>
+      <c r="B528" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>23617.36601723161</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n"/>
+      <c r="B529" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>3682.541885905551</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n"/>
+      <c r="B530" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>46993.63297437345</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n"/>
+      <c r="B531" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>64203.38181011919</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n"/>
+      <c r="B532" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>284021.4362352972</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n"/>
+      <c r="B533" s="1" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>1156.039199089041</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n"/>
+      <c r="B534" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>479.9836659299891</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n"/>
+      <c r="B535" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>2164.515502367194</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n"/>
+      <c r="B536" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>26428.30881104126</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n"/>
+      <c r="B537" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>1842127.03060759</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n"/>
+      <c r="B538" s="1" t="inlineStr">
+        <is>
+          <t>VincViv</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>726.5133675042881</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>0706401001</t>
+        </is>
+      </c>
+      <c r="B539" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>1375.005075370414</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n"/>
+      <c r="B540" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>1143.436722625692</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n"/>
+      <c r="B541" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>1941.717281828988</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n"/>
+      <c r="B542" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>1089.307726136194</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n"/>
+      <c r="B543" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>1751.766250374227</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n"/>
+      <c r="B544" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>2601.996015876288</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n"/>
+      <c r="B545" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>1313.27567562079</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n"/>
+      <c r="B546" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>1284.79600513384</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n"/>
+      <c r="B547" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>8554.838377112399</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n"/>
+      <c r="B548" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>52917.97818311607</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>0706401002</t>
+        </is>
+      </c>
+      <c r="B549" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>62.67574250111687</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n"/>
+      <c r="B550" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>587.4831636369851</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n"/>
+      <c r="B551" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>387.9028477386593</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n"/>
+      <c r="B552" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>2563.584755730237</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n"/>
+      <c r="B553" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>13446.81699014164</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n"/>
+      <c r="B554" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>457.5840874987034</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n"/>
+      <c r="B555" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>77509.46141694863</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>0706401003</t>
+        </is>
+      </c>
+      <c r="B556" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>1728092.248943268</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n"/>
+      <c r="B557" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>7744.996860714674</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n"/>
+      <c r="B558" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>2435.63516525354</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n"/>
+      <c r="B559" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>527993.5005661515</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n"/>
+      <c r="B560" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>14589.38293136111</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n"/>
+      <c r="B561" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>50715.68451245538</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n"/>
+      <c r="B562" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>116725.8870620384</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n"/>
+      <c r="B563" s="1" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>416.3665711296794</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n"/>
+      <c r="B564" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>16214.59125286494</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n"/>
+      <c r="B565" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>7640.490120266917</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n"/>
+      <c r="B566" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>11301.07626830768</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n"/>
+      <c r="B567" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>756965.9283383234</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n"/>
+      <c r="B568" s="1" t="inlineStr">
+        <is>
+          <t>VincViv</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>2726.318831214947</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>0706401004</t>
+        </is>
+      </c>
+      <c r="B569" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>457.9544975008436</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n"/>
+      <c r="B570" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>751.6957877407376</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n"/>
+      <c r="B571" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>74.50986999948985</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n"/>
+      <c r="B572" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>131.7450333076836</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n"/>
+      <c r="B573" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>31799.34123673535</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>0706401005</t>
+        </is>
+      </c>
+      <c r="B574" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>255.5311952519871</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n"/>
+      <c r="B575" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>866.7768052141878</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n"/>
+      <c r="B576" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>16.05730025006508</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n"/>
+      <c r="B577" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>104.7172845003417</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n"/>
+      <c r="B578" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>11447.07407059069</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n"/>
+      <c r="B579" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>12782.9319537458</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n"/>
+      <c r="B580" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>2565.076095502449</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n"/>
+      <c r="B581" s="1" t="inlineStr">
+        <is>
+          <t>Oficines</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>428.1403376177302</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n"/>
+      <c r="B582" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>387.7157677457478</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n"/>
+      <c r="B583" s="1" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>579.9227375723898</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n"/>
+      <c r="B584" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>189448.5914757646</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>0790201001</t>
+        </is>
+      </c>
+      <c r="B585" s="1" t="inlineStr">
+        <is>
+          <t>AltresCal</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>2491.836572398377</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n"/>
+      <c r="B586" s="1" t="inlineStr">
+        <is>
+          <t>AltresNoCal</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>5530511.839385251</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n"/>
+      <c r="B587" s="1" t="inlineStr">
+        <is>
+          <t>Aparcament</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>18599.27466625845</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n"/>
+      <c r="B588" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>4300.949152270685</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n"/>
+      <c r="B589" s="1" t="inlineStr">
+        <is>
+          <t>Emmagatzematge</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>811224.6790081611</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n"/>
+      <c r="B590" s="1" t="inlineStr">
+        <is>
+          <t>EnsenyamentCultural</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>5988.594341025884</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n"/>
+      <c r="B591" s="1" t="inlineStr">
+        <is>
+          <t>Esportiu</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>13135.2110088713</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n"/>
+      <c r="B592" s="1" t="inlineStr">
+        <is>
+          <t>HotelerRestauracio</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>614924.6705903194</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n"/>
+      <c r="B593" s="1" t="inlineStr">
+        <is>
+          <t>IndustrialResta</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>3512.782501057442</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n"/>
+      <c r="B594" s="1" t="inlineStr">
+        <is>
+          <t>Piscines</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>2913.540917976373</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n"/>
+      <c r="B595" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>3504337.00904244</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n"/>
+      <c r="B596" s="1" t="inlineStr">
+        <is>
+          <t>VincViv</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>2529.299267735584</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="A106:A113"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="A121:A130"/>
-    <mergeCell ref="A131:A136"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="A156:A163"/>
-    <mergeCell ref="A164:A170"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="A178:A182"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="A206:A212"/>
-    <mergeCell ref="A213:A218"/>
-    <mergeCell ref="A219:A225"/>
-    <mergeCell ref="A226:A230"/>
-    <mergeCell ref="A231:A235"/>
-    <mergeCell ref="A236:A243"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="A253:A259"/>
-    <mergeCell ref="A260:A263"/>
-    <mergeCell ref="A264:A271"/>
-    <mergeCell ref="A272:A278"/>
-    <mergeCell ref="A279:A283"/>
-    <mergeCell ref="A284:A289"/>
-    <mergeCell ref="A290:A292"/>
-    <mergeCell ref="A293:A296"/>
-    <mergeCell ref="A297:A302"/>
+  <mergeCells count="52">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A39:A53"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="A78:A88"/>
+    <mergeCell ref="A89:A100"/>
+    <mergeCell ref="A101:A113"/>
+    <mergeCell ref="A114:A124"/>
+    <mergeCell ref="A125:A132"/>
+    <mergeCell ref="A133:A147"/>
+    <mergeCell ref="A148:A157"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A164:A176"/>
+    <mergeCell ref="A177:A189"/>
+    <mergeCell ref="A190:A200"/>
+    <mergeCell ref="A201:A212"/>
+    <mergeCell ref="A213:A223"/>
+    <mergeCell ref="A224:A232"/>
+    <mergeCell ref="A233:A246"/>
+    <mergeCell ref="A247:A261"/>
+    <mergeCell ref="A262:A270"/>
+    <mergeCell ref="A271:A283"/>
+    <mergeCell ref="A284:A293"/>
+    <mergeCell ref="A294:A303"/>
+    <mergeCell ref="A304:A317"/>
+    <mergeCell ref="A318:A330"/>
+    <mergeCell ref="A331:A339"/>
+    <mergeCell ref="A340:A347"/>
+    <mergeCell ref="A348:A356"/>
+    <mergeCell ref="A357:A369"/>
+    <mergeCell ref="A370:A384"/>
+    <mergeCell ref="A385:A388"/>
+    <mergeCell ref="A389:A396"/>
+    <mergeCell ref="A397:A410"/>
+    <mergeCell ref="A411:A422"/>
+    <mergeCell ref="A423:A433"/>
+    <mergeCell ref="A434:A448"/>
+    <mergeCell ref="A449:A461"/>
+    <mergeCell ref="A462:A474"/>
+    <mergeCell ref="A475:A488"/>
+    <mergeCell ref="A489:A501"/>
+    <mergeCell ref="A502:A514"/>
+    <mergeCell ref="A515:A525"/>
+    <mergeCell ref="A526:A538"/>
+    <mergeCell ref="A539:A548"/>
+    <mergeCell ref="A549:A555"/>
+    <mergeCell ref="A556:A568"/>
+    <mergeCell ref="A569:A573"/>
+    <mergeCell ref="A574:A584"/>
+    <mergeCell ref="A585:A596"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
